--- a/과외/커리큘럼.xlsx
+++ b/과외/커리큘럼.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsgu\Desktop\Programming\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsgu\Desktop\Programming\python\과외\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91D5F7B-F0A8-40DA-9FEB-814720591A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEE939-CD89-4D50-B287-77E63A593099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="555" windowWidth="21600" windowHeight="13350" xr2:uid="{996157E4-0D67-4AE0-93D5-E77D5B6291BF}"/>
+    <workbookView xWindow="255" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{996157E4-0D67-4AE0-93D5-E77D5B6291BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -644,15 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F492F15-D8A9-453E-AAA0-87E134CFDE0D}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25">
+    <row r="2" spans="2:12" ht="17.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:12">
       <c r="B3" s="2"/>
       <c r="F3" t="s">
         <v>21</v>
@@ -671,8 +674,9 @@
       <c r="H3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="17.25">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25">
+    <row r="5" spans="2:12" ht="17.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -694,7 +698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="17.25">
+    <row r="6" spans="2:12" ht="17.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -702,44 +706,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:12">
       <c r="B7" s="4"/>
       <c r="F7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="17.25">
+    <row r="10" spans="2:12" ht="17.25">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="17.25">
+    <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25">
+    <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25">
+    <row r="13" spans="2:12" ht="17.25">
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25">
+    <row r="14" spans="2:12" ht="17.25">
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25">
+    <row r="15" spans="2:12" ht="17.25">
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="17.25">
+    <row r="16" spans="2:12" ht="17.25">
       <c r="F16" s="8"/>
     </row>
   </sheetData>

--- a/과외/커리큘럼.xlsx
+++ b/과외/커리큘럼.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsgu\Desktop\Programming\python\과외\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Python\과외\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEE939-CD89-4D50-B287-77E63A593099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D3437-C504-444A-A0AA-A2A4DB16E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{996157E4-0D67-4AE0-93D5-E77D5B6291BF}"/>
+    <workbookView xWindow="1575" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{996157E4-0D67-4AE0-93D5-E77D5B6291BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
